--- a/SF1590_B ØiR - Afsend debitorregistrering til ØiR (Debitor)/Documentation/Copy of Testdata 1590_B jho kommentarer.xlsx
+++ b/SF1590_B ØiR - Afsend debitorregistrering til ØiR (Debitor)/Documentation/Copy of Testdata 1590_B jho kommentarer.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="60" windowWidth="19200" windowHeight="7608" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="60" windowWidth="19200" windowHeight="7608" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Vejledning" sheetId="21" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet name="BP" sheetId="22" r:id="rId6"/>
     <sheet name="Ark2" sheetId="23" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
@@ -51,6 +51,30 @@
           </rPr>
           <t xml:space="preserve">
 Hvordan skal vi teste denne?</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Jørgen Holmenlund:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Denne case er kun omtalt online i drejebog</t>
         </r>
       </text>
     </comment>
@@ -961,7 +985,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -1038,6 +1062,19 @@
       <color indexed="81"/>
       <name val="Tahoma"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="7">
@@ -1866,7 +1903,7 @@
   <dimension ref="A1:D41"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A31" sqref="A31:A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
@@ -3228,8 +3265,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G96"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
@@ -5397,7 +5434,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F96"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
@@ -10504,15 +10541,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <LikesCount xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
@@ -10525,6 +10553,15 @@
     </LikedBy>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -10674,14 +10711,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BB867D05-8470-422F-A974-0D414FFB0255}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F44DDD4D-E43A-48D0-ADB3-8219FF5B0680}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
@@ -10693,6 +10722,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BB867D05-8470-422F-A974-0D414FFB0255}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
